--- a/biology/Botanique/Penicillium_canadense/Penicillium_canadense.xlsx
+++ b/biology/Botanique/Penicillium_canadense/Penicillium_canadense.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Phialomyces arenicola est une espèce de champignons Ascomycètes de la famille des Aspergillaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Phialomyces arenicola a été décrite d'après une souche (souche type à cette époque) isolée en Ukraine dans une forêt de pins près de Kiev, sous le nom de Penicillium arenicola en 1950. Des études phylogénétiques ont ensuite montré qu'elle était plus proche du genre Phialomyces.
 </t>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce peut produire des conidiophores terverticillés[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce peut produire des conidiophores terverticillés.
 </t>
         </is>
       </c>
@@ -573,11 +589,13 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Phialomyces arenicola (Chalab. (d)) Houbraken (d), Frisvad (d) &amp; Samson (d), 2020[2].
-L'espèce a été initialement classée dans le genre Penicillium sous le basionyme Penicillium arenicola Chalab., 1950[2]. La souche type de l'ex-Penicillium arenicola CDS 220 66 a été déposée dans différentes banques de cultures sous les identifiants ATCC 18321 et ATCC 18330 et IMI 117658 et NRRL 3392[3]. Elle a été confirmée comme appartenant au genre Phialomyces et non à Penicillium à la suite d'une analyse phylogénétique regroupant dans le même genre, les espèces Penicillium arenicola, Merimbla humicoloides et Phialomyces macrosporus[1].
-Phialomyces arenicola a pour synonymes[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Phialomyces arenicola (Chalab. (d)) Houbraken (d), Frisvad (d) &amp; Samson (d), 2020.
+L'espèce a été initialement classée dans le genre Penicillium sous le basionyme Penicillium arenicola Chalab., 1950. La souche type de l'ex-Penicillium arenicola CDS 220 66 a été déposée dans différentes banques de cultures sous les identifiants ATCC 18321 et ATCC 18330 et IMI 117658 et NRRL 3392. Elle a été confirmée comme appartenant au genre Phialomyces et non à Penicillium à la suite d'une analyse phylogénétique regroupant dans le même genre, les espèces Penicillium arenicola, Merimbla humicoloides et Phialomyces macrosporus.
+Phialomyces arenicola a pour synonymes :
 Penicillium arenicola Chalab., 1950
 Penicillium canadense G. Sm., 1956</t>
         </is>
